--- a/docs/efforts/Jakob Welchner.xlsx
+++ b/docs/efforts/Jakob Welchner.xlsx
@@ -8,16 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjRvon7acpKab59GlYgwduaQZginQ=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Jakob Welchner</t>
   </si>
@@ -52,7 +47,7 @@
     <t>Sprint # 1</t>
   </si>
   <si>
-    <t>6[CS, IT], 3, 5</t>
+    <t>6[IT], 3, 5</t>
   </si>
   <si>
     <t>Wrote up requirements, helped develop practice and procedure for Git, discussed and minorly assisted with other objectives</t>
@@ -70,7 +65,7 @@
     <t>Sprint # 2</t>
   </si>
   <si>
-    <t>6[CS,IT], 2, 3, 5</t>
+    <t>6[IT], 2, 3, 5</t>
   </si>
   <si>
     <t>Assisted with user stories/requirements and diagrams</t>
@@ -88,6 +83,12 @@
     <t>Sprint # 3</t>
   </si>
   <si>
+    <t>6[IT]</t>
+  </si>
+  <si>
+    <t>assisted in developing code for the main pages of the front end, as well as starting the player history page</t>
+  </si>
+  <si>
     <t>Powerpoint</t>
   </si>
   <si>
@@ -100,57 +101,69 @@
     <t>Sprint # 4</t>
   </si>
   <si>
+    <t>Assisted in developing the front end for the login, and made the front end for the history page</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Someclass.java</t>
-  </si>
-  <si>
-    <t>New code(20), Updated(3)</t>
+    <t>login.html, login.sass, history.html, history.sass</t>
+  </si>
+  <si>
+    <t>New code</t>
   </si>
   <si>
     <t>Sprint # 5</t>
   </si>
   <si>
-    <t>Project plan</t>
-  </si>
-  <si>
-    <t>plan.prj</t>
-  </si>
-  <si>
-    <t>task 1 to 5</t>
+    <t>6[IT],  3, 5</t>
+  </si>
+  <si>
+    <t>developed front end for admin pages, assisted with presentation, assisted with other front end pages</t>
+  </si>
+  <si>
+    <t>admin pages</t>
+  </si>
+  <si>
+    <t>manage-course.html, manage-course.sass, manage-users.html, manage-users.sass, sprint5.docx</t>
   </si>
   <si>
     <t>Sprint # 6</t>
   </si>
   <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Bugzilla</t>
-  </si>
-  <si>
-    <t>Bug ID - 1, 3, 7</t>
+    <t>developed front end pages (admin, game, etc), assisted with presentation</t>
+  </si>
+  <si>
+    <t>admin pages, game page</t>
+  </si>
+  <si>
+    <t>add-edit-courses.component.html, game.component.html</t>
+  </si>
+  <si>
+    <t>new code</t>
   </si>
   <si>
     <t>Sprint # 7</t>
   </si>
   <si>
-    <t>Unit test</t>
+    <t>Developed from end pages including user admin pages, form modals, etc</t>
+  </si>
+  <si>
+    <t>admin pages, admin forms</t>
+  </si>
+  <si>
+    <t>add-edit-courses.component.html, manage-users.component.html</t>
+  </si>
+  <si>
+    <t>Sprint # 8</t>
+  </si>
+  <si>
+    <t>Test data</t>
   </si>
   <si>
     <t>testcase.java</t>
   </si>
   <si>
-    <t>New code(23), Updated(1)</t>
-  </si>
-  <si>
-    <t>Sprint # 8</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
     <t>New test data (5)</t>
   </si>
   <si>
@@ -211,10 +224,10 @@
     <t>6[CS]</t>
   </si>
   <si>
-    <t>6[IT]</t>
-  </si>
-  <si>
     <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
   </si>
 </sst>
 </file>
@@ -265,12 +278,12 @@
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -361,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -392,23 +405,29 @@
     <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,18 +449,21 @@
     <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,19 +780,19 @@
       <c r="C5" s="15">
         <v>10.0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -779,170 +801,200 @@
         <v>22</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>37</v>
+      <c r="C9" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>41</v>
+      <c r="C10" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -1980,12 +2032,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>58</v>
+      <c r="A1" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
-        <v>59</v>
+      <c r="C1" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1995,8 +2047,8 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" ht="40.5" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>60</v>
+      <c r="A2" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
@@ -2010,10 +2062,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="22"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
-        <v>61</v>
+      <c r="C3" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2027,195 +2079,265 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="24">
+        <v>68</v>
+      </c>
+      <c r="C4" s="26">
         <v>1.0</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="26">
         <v>2.0</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>3.0</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="26">
         <v>4.0</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="26">
         <v>5.0</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>64</v>
+      <c r="H4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="30.75" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="27">
         <v>0.0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <v>2.0</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>2.0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="29">
         <v>1.0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="27">
         <v>1.0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="27">
         <v>5.0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="28">
         <v>2.0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="28">
         <v>3.0</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="A6" s="29">
+      <c r="A6" s="31">
         <v>1.0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="C6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="32">
         <v>2.0</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="32">
         <v>3.0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="32">
         <v>2.0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="32">
         <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="36.0" customHeight="1">
-      <c r="A7" s="29">
+      <c r="A7" s="31">
         <v>2.0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8" ht="36.0" customHeight="1">
-      <c r="A8" s="29">
+      <c r="A8" s="31">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="29">
+      <c r="A9" s="31">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="10" ht="36.0" customHeight="1">
-      <c r="A10" s="29">
+      <c r="A10" s="31">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="11" ht="36.0" customHeight="1">
-      <c r="A11" s="29">
+      <c r="A11" s="31">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="12" ht="36.0" customHeight="1">
-      <c r="A12" s="29">
+      <c r="A12" s="31">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" ht="36.0" customHeight="1">
-      <c r="A13" s="29">
+      <c r="A13" s="31">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
